--- a/output/StructureDefinition-ndh-PractitionerRole.xlsx
+++ b/output/StructureDefinition-ndh-PractitionerRole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -608,7 +608,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-rating}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-newpatients}
 </t>
   </si>
   <si>
@@ -641,7 +641,7 @@
     <t>network-reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/network-reference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-network-reference}
 </t>
   </si>
   <si>
@@ -907,7 +907,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-via-intermediary}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ndh-PractitionerRole.xlsx
+++ b/output/StructureDefinition-ndh-PractitionerRole.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH PractitionerRole</t>
+    <t>NDH Base PractitionerRole</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
